--- a/pandaspy/testoutput/dashboardresult.xlsx
+++ b/pandaspy/testoutput/dashboardresult.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,7 +956,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="D18" t="n">
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>total_amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="n">
         <v>65</v>
       </c>
     </row>
